--- a/Engine-Data/Fuel-Engine-Analysis.xlsx
+++ b/Engine-Data/Fuel-Engine-Analysis.xlsx
@@ -1,41 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robermur/Dropbox/Adventuress/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robermur/Projects/Adventuress-Public/Engine-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15556193-B2AA-3F4E-88FA-E7CD45DA0C9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF7625B-7D52-294A-89C3-6D9E3C189587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{C225DE60-673C-5F46-BE88-70979B859910}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C225DE60-673C-5F46-BE88-70979B859910}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fuel Curve 1" sheetId="7" r:id="rId1"/>
-    <sheet name="Fuel Curve 2" sheetId="11" r:id="rId2"/>
-    <sheet name="Engine Analsysis" sheetId="15" r:id="rId3"/>
-    <sheet name="Fuel Burn Rate" sheetId="13" r:id="rId4"/>
-    <sheet name="Fuel Tank  Calc" sheetId="9" r:id="rId5"/>
-    <sheet name="Site Gauge" sheetId="10" r:id="rId6"/>
+    <sheet name="Fuel Curve" sheetId="11" r:id="rId1"/>
+    <sheet name="Engine Analsysis" sheetId="15" r:id="rId2"/>
+    <sheet name="Fuel Burn Rate" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="AFT_TABLE">'Site Gauge'!$D$11:$E$28</definedName>
-    <definedName name="AFT_VOL">'Fuel Tank  Calc'!$C$5</definedName>
-    <definedName name="distance" localSheetId="1">#REF!</definedName>
+    <definedName name="AFT_TABLE">#REF!</definedName>
+    <definedName name="AFT_VOL">#REF!</definedName>
+    <definedName name="distance" localSheetId="0">#REF!</definedName>
     <definedName name="distance">#REF!</definedName>
-    <definedName name="FT_VOL">'Fuel Tank  Calc'!$B$5</definedName>
-    <definedName name="FWD_P_LVL">'Fuel Tank  Calc'!$F$3</definedName>
-    <definedName name="FWD_S_LVL">'Fuel Tank  Calc'!$G$3</definedName>
-    <definedName name="FWD_TABLE">'Site Gauge'!$A$11:$B$36</definedName>
-    <definedName name="FWD_TANK">'Fuel Tank  Calc'!$A$13:$B$38</definedName>
-    <definedName name="FWD_TANK_INDEX">'Fuel Tank  Calc'!$A$13:$A$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Table22[[#All],[RPM]:[Range (NM)]]</definedName>
-    <definedName name="RESERVE" localSheetId="1">'Fuel Curve 2'!$B$3</definedName>
-    <definedName name="RESERVE">'Fuel Curve 1'!$B$3</definedName>
-    <definedName name="TANKAGE" localSheetId="1">'Fuel Curve 2'!$B$2</definedName>
-    <definedName name="TANKAGE">'Fuel Curve 1'!$B$2</definedName>
+    <definedName name="FT_VOL">#REF!</definedName>
+    <definedName name="FWD_P_LVL">#REF!</definedName>
+    <definedName name="FWD_S_LVL">#REF!</definedName>
+    <definedName name="FWD_TABLE">#REF!</definedName>
+    <definedName name="FWD_TANK">#REF!</definedName>
+    <definedName name="FWD_TANK_INDEX">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Table22[[#All],[RPM]:[Range (NM)]]</definedName>
+    <definedName name="RESERVE" localSheetId="0">'Fuel Curve'!$B$3</definedName>
+    <definedName name="RESERVE">#REF!</definedName>
+    <definedName name="TANKAGE" localSheetId="0">'Fuel Curve'!$B$2</definedName>
+    <definedName name="TANKAGE">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +42,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,40 +54,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Robert Murphy</author>
-  </authors>
-  <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{C6F7C3E8-7381-1F44-9A45-9D8BB1225BFA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Load is measured as the fuel burn / maximum fuel burn</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Robert Murphy</author>
@@ -121,12 +88,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>RPM</t>
-  </si>
-  <si>
-    <t>KNOTS</t>
   </si>
   <si>
     <t>Total Tankage</t>
@@ -149,87 +113,11 @@
     <t>% Load</t>
   </si>
   <si>
-    <t>NOTE: During break in period run engine at 1950 hours a minimum of 50% of the time</t>
-  </si>
-  <si>
     <t>Distance
 (10hr)</t>
   </si>
   <si>
-    <t>28 hour run</t>
-  </si>
-  <si>
     <t>Displacement Speed</t>
-  </si>
-  <si>
-    <t>Projected RPM</t>
-  </si>
-  <si>
-    <t>Fuel Burn Rate</t>
-  </si>
-  <si>
-    <t>Forward Tank</t>
-  </si>
-  <si>
-    <t>Sight Gauge</t>
-  </si>
-  <si>
-    <t>Remaining Fuel</t>
-  </si>
-  <si>
-    <t>Aft Tanks</t>
-  </si>
-  <si>
-    <t>Unit of Measure
-Gallons / 1" Vertical</t>
-  </si>
-  <si>
-    <t>Aft Tank</t>
-  </si>
-  <si>
-    <t>FORWARD</t>
-  </si>
-  <si>
-    <t>AFT</t>
-  </si>
-  <si>
-    <t>PORT</t>
-  </si>
-  <si>
-    <t>STARBOARD</t>
-  </si>
-  <si>
-    <t>FUEL GAUGE READINGS</t>
-  </si>
-  <si>
-    <t>FUEL GAUGE</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>Aft</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>Starboard</t>
-  </si>
-  <si>
-    <t>Gulfport 165/165</t>
-  </si>
-  <si>
-    <t>Tampa 52.58/60.74</t>
-  </si>
-  <si>
-    <t>Enroute to Ft. Myer</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Hours</t>
   </si>
   <si>
     <t>NM/G</t>
@@ -241,9 +129,6 @@
     <t>Sea Trial Date:  04-28-2019</t>
   </si>
   <si>
-    <t>Sea Trial Date:  07-24-2018</t>
-  </si>
-  <si>
     <t>SOG</t>
   </si>
   <si>
@@ -253,6 +138,9 @@
   <si>
     <t>Oil PSI</t>
   </si>
+  <si>
+    <t>Note: Data generated on lake with data averaged across runs in both directions</t>
+  </si>
 </sst>
 </file>
 
@@ -261,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,13 +159,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -296,69 +177,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -381,109 +209,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,108 +234,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,27 +252,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -850,193 +468,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1186,7 +617,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fuel Curve 2'!$H$5</c:f>
+              <c:f>'Fuel Curve'!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1209,7 +640,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Fuel Curve 2'!$B$6:$B$18</c:f>
+              <c:f>'Fuel Curve'!$B$6:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1254,7 +685,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fuel Curve 2'!$H$6:$H$17</c:f>
+              <c:f>'Fuel Curve'!$H$6:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1325,7 +756,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fuel Curve 2'!$C$5</c:f>
+              <c:f>'Fuel Curve'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1348,7 +779,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Fuel Curve 2'!$B$6:$B$18</c:f>
+              <c:f>'Fuel Curve'!$B$6:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1393,7 +824,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fuel Curve 2'!$C$6:$C$17</c:f>
+              <c:f>'Fuel Curve'!$C$6:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1927,7 +1358,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fuel Curve 2'!$G$5</c:f>
+              <c:f>'Fuel Curve'!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1951,7 +1382,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Fuel Curve 2'!$B$5:$B$17</c:f>
+              <c:f>'Fuel Curve'!$B$5:$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -1998,7 +1429,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fuel Curve 2'!$G$6:$G$17</c:f>
+              <c:f>'Fuel Curve'!$G$6:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3358,7 +2789,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2A8BD3D6-A7D0-6547-BA6C-E09C17AC561C}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="146" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3369,7 +2800,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="6377214" cy="8563429"/>
+    <xdr:ext cx="8663214" cy="6277429"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3616,7 +3047,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8672534" cy="6280411"/>
+    <xdr:ext cx="8676718" cy="6291832"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3780,33 +3211,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EB678EE8-52AF-1A45-A0F1-C406EE679B7C}" name="Table2" displayName="Table2" ref="B5:I16" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3B3D7635-5372-E042-B37D-480039FF3E38}" name="RPM" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{B3725043-1C31-3E4D-984C-B52D5F26F6FC}" name="% Load" dataDxfId="18">
-      <calculatedColumnFormula>Table2[[#This Row],[Fuel Burn
-Single Engine]]/5</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{38CEDD67-1B7A-3D44-AE0A-0A302F5B02A3}" name="KNOTS" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{3CCC8C2A-FEA7-F44A-B2EC-7C7068B6E616}" name="Fuel Burn_x000a_Single Engine" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{D310D23F-E5DD-A14F-A5A8-6AD791A12CF4}" name="NM/G" dataDxfId="15">
-      <calculatedColumnFormula>IF(E6="","",ROUND(D6/(2*E6),1))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{35664610-DC1B-FC43-AB25-AC03970B7824}" name="Range (NM)" dataDxfId="14">
-      <calculatedColumnFormula>IF(F6="","",(TANKAGE-(TANKAGE*RESERVE))*F6)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{D611AF43-5893-9740-8132-C5B21625FA74}" name="Distance_x000a_(10hr)" dataDxfId="13">
-      <calculatedColumnFormula>IF(F6="","",Table2[[#This Row],[KNOTS]]*10)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{3768E8DE-E283-B246-9850-B6BDA10ABE13}" name="Distance_x000a_(24hr)" dataDxfId="12">
-      <calculatedColumnFormula>IF(F6="","",Table2[[#This Row],[KNOTS]]*24)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31BDAF9F-C6C2-1E47-877E-C37C2C331D94}" name="Table22" displayName="Table22" ref="B5:K17" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{8E730962-D90B-5F4B-B3DC-2C969D8D2505}" name="RPM" dataDxfId="9"/>
@@ -4128,980 +3532,528 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F20BA8-B845-1441-88DD-52E505DDC1D2}">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECF83BA-AB69-494B-B502-C7DC7D9D6DB1}">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="10">
-        <f>1.34*(SQRT(45.4))</f>
-        <v>9.0288559629667375</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>700</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
-        <v>1700</v>
-      </c>
-      <c r="C6" s="7">
-        <f>Table2[[#This Row],[Fuel Burn
-Single Engine]]/5</f>
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="D6" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" ref="F6:F16" si="0">IF(E6="","",ROUND(D6/(2*E6),1))</f>
-        <v>2.1</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" ref="G6:G16" si="1">IF(F6="","",(TANKAGE-(TANKAGE*RESERVE))*F6)</f>
-        <v>1323</v>
-      </c>
-      <c r="H6" s="4">
-        <f>IF(F6="","",Table2[[#This Row],[KNOTS]]*10)</f>
-        <v>72</v>
-      </c>
-      <c r="I6" s="4">
-        <f>IF(F6="","",Table2[[#This Row],[KNOTS]]*24)</f>
-        <v>172.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
-        <v>1750</v>
-      </c>
-      <c r="C7" s="7">
-        <f>Table2[[#This Row],[Fuel Burn
-Single Engine]]/5</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H7" s="4" t="str">
-        <f>IF(F7="","",Table2[[#This Row],[KNOTS]]*10)</f>
-        <v/>
-      </c>
-      <c r="I7" s="6" t="str">
-        <f>IF(F7="","",Table2[[#This Row],[KNOTS]]*24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="4">
-        <v>1800</v>
-      </c>
-      <c r="C8" s="7">
-        <f>Table2[[#This Row],[Fuel Burn
-Single Engine]]/5</f>
-        <v>0.4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="1"/>
-        <v>1197</v>
-      </c>
-      <c r="H8" s="4">
-        <f>IF(F8="","",Table2[[#This Row],[KNOTS]]*10)</f>
-        <v>76</v>
-      </c>
-      <c r="I8" s="4">
-        <f>IF(F8="","",Table2[[#This Row],[KNOTS]]*24)</f>
-        <v>182.39999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="4">
-        <v>1850</v>
-      </c>
-      <c r="C9" s="7">
-        <f>Table2[[#This Row],[Fuel Burn
-Single Engine]]/5</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f>IF(F9="","",Table2[[#This Row],[KNOTS]]*10)</f>
-        <v/>
-      </c>
-      <c r="I9" s="6" t="str">
-        <f>IF(F9="","",Table2[[#This Row],[KNOTS]]*24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="4">
-        <v>1900</v>
-      </c>
-      <c r="C10" s="7">
-        <f>Table2[[#This Row],[Fuel Burn
-Single Engine]]/5</f>
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="D10" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="1"/>
-        <v>1134</v>
-      </c>
-      <c r="H10" s="4">
-        <f>IF(F10="","",Table2[[#This Row],[KNOTS]]*10)</f>
-        <v>78</v>
-      </c>
-      <c r="I10" s="4">
-        <f>IF(F10="","",Table2[[#This Row],[KNOTS]]*24)</f>
-        <v>187.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
-        <v>1950</v>
-      </c>
-      <c r="C11" s="7">
-        <f>Table2[[#This Row],[Fuel Burn
-Single Engine]]/5</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="4" t="str">
-        <f>IF(F11="","",Table2[[#This Row],[KNOTS]]*10)</f>
-        <v/>
-      </c>
-      <c r="I11" s="6" t="str">
-        <f>IF(F11="","",Table2[[#This Row],[KNOTS]]*24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="4">
-        <v>2000</v>
-      </c>
-      <c r="C12" s="7">
-        <f>Table2[[#This Row],[Fuel Burn
-Single Engine]]/5</f>
-        <v>0.6</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>819</v>
-      </c>
-      <c r="H12" s="4">
-        <f>IF(F12="","",Table2[[#This Row],[KNOTS]]*10)</f>
-        <v>80</v>
-      </c>
-      <c r="I12" s="4">
-        <f>IF(F12="","",Table2[[#This Row],[KNOTS]]*24)</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="4">
-        <v>2050</v>
-      </c>
-      <c r="C13" s="7">
-        <f>Table2[[#This Row],[Fuel Burn
-Single Engine]]/5</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H13" s="4" t="str">
-        <f>IF(F13="","",Table2[[#This Row],[KNOTS]]*10)</f>
-        <v/>
-      </c>
-      <c r="I13" s="6" t="str">
-        <f>IF(F13="","",Table2[[#This Row],[KNOTS]]*24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="4">
-        <v>2100</v>
-      </c>
-      <c r="C14" s="7">
-        <f>Table2[[#This Row],[Fuel Burn
-Single Engine]]/5</f>
-        <v>0.7</v>
-      </c>
-      <c r="D14" s="4">
-        <v>8.6</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="1"/>
-        <v>756</v>
-      </c>
-      <c r="H14" s="4">
-        <f>IF(F14="","",Table2[[#This Row],[KNOTS]]*10)</f>
-        <v>86</v>
-      </c>
-      <c r="I14" s="6">
-        <f>IF(F14="","",Table2[[#This Row],[KNOTS]]*24)</f>
-        <v>206.39999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="4">
-        <v>2200</v>
-      </c>
-      <c r="C15" s="7">
-        <f>Table2[[#This Row],[Fuel Burn
-Single Engine]]/5</f>
-        <v>0.94000000000000006</v>
-      </c>
-      <c r="D15" s="4">
-        <v>8.9</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="F15" s="5">
-        <f>IF(E15="","",ROUND(D15/(2*E15),1))</f>
-        <v>0.9</v>
-      </c>
-      <c r="G15" s="6">
-        <f>IF(F15="","",(TANKAGE-(TANKAGE*RESERVE))*F15)</f>
-        <v>567</v>
-      </c>
-      <c r="H15" s="6">
-        <f>IF(F15="","",Table2[[#This Row],[KNOTS]]*10)</f>
-        <v>89</v>
-      </c>
-      <c r="I15" s="6">
-        <f>IF(F15="","",Table2[[#This Row],[KNOTS]]*24)</f>
-        <v>213.60000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="4">
-        <v>2300</v>
-      </c>
-      <c r="C16" s="7">
-        <f>Table2[[#This Row],[Fuel Burn
-Single Engine]]/5</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>567</v>
-      </c>
-      <c r="H16" s="4">
-        <f>IF(F16="","",Table2[[#This Row],[KNOTS]]*10)</f>
-        <v>85</v>
-      </c>
-      <c r="I16" s="4">
-        <f>IF(F16="","",Table2[[#This Row],[KNOTS]]*24)</f>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f>32*D10</f>
-        <v>249.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A18:F18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECF83BA-AB69-494B-B502-C7DC7D9D6DB1}">
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" style="54" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="54" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="54" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" customWidth="1"/>
-    <col min="7" max="8" width="11.5" style="54" customWidth="1"/>
+    <col min="7" max="8" width="11.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="10">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7">
         <f>1.34*(SQRT(45.4))</f>
         <v>9.0288559629667375</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>36</v>
+      <c r="D1" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="54">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
         <v>700</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>37</v>
+      <c r="D2" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>0.1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="54" t="s">
+      <c r="K5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1500</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.26</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="12">
         <v>175</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="12">
         <v>53</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>6.7</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="10">
         <v>1.3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <f t="shared" ref="H6:H17" si="0">IF(G6="","",ROUND(F6/(2*G6),1))</f>
         <v>2.6</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f t="shared" ref="I6:I17" si="1">IF(H6="","",(TANKAGE-(TANKAGE*RESERVE))*H6)</f>
         <v>1638</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <f>IF(H6="","",Table22[[#This Row],[SOG]]*10)</f>
         <v>67</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <f>IF(H6="","",Table22[[#This Row],[SOG]]*24)</f>
         <v>160.80000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1600</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>0.27</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="12">
         <v>175</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="12">
         <v>54</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>7</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="10">
         <v>1.45</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
         <v>1512</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f>IF(H7="","",Table22[[#This Row],[SOG]]*10)</f>
         <v>70</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <f>IF(H7="","",Table22[[#This Row],[SOG]]*24)</f>
         <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1700</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="12">
         <v>176</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="12">
         <v>56</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>7.3</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="10">
         <v>1.65</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f t="shared" si="1"/>
         <v>1386</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f>IF(H8="","",Table22[[#This Row],[SOG]]*10)</f>
         <v>73</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <f>IF(H8="","",Table22[[#This Row],[SOG]]*24)</f>
         <v>175.2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>1800</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.31</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="12">
         <v>177</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="12">
         <v>57</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>7.7</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="10">
         <v>1.87</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>1323</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <f>IF(H9="","",Table22[[#This Row],[SOG]]*10)</f>
         <v>77</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <f>IF(H9="","",Table22[[#This Row],[SOG]]*24)</f>
         <v>184.8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>1900</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>0.34</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="12">
         <v>176</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="12">
         <v>58</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>8</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>1134</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f>IF(H10="","",Table22[[#This Row],[SOG]]*10)</f>
         <v>80</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <f>IF(H10="","",Table22[[#This Row],[SOG]]*24)</f>
         <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>2000</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>0.38</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="12">
         <v>177</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="12">
         <v>59</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="10">
         <v>2.5249999999999999</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <f>IF(H11="","",Table22[[#This Row],[SOG]]*10)</f>
         <v>83</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <f>IF(H11="","",Table22[[#This Row],[SOG]]*24)</f>
         <v>199.20000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>2100</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>0.45</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="12">
         <v>178</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="12">
         <v>60</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>8.6</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="10">
         <v>3.05</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <f t="shared" si="1"/>
         <v>882</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <f>IF(H12="","",Table22[[#This Row],[SOG]]*10)</f>
         <v>86</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <f>IF(H12="","",Table22[[#This Row],[SOG]]*24)</f>
         <v>206.39999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>2200</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0.5</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="12">
         <v>178</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="12">
         <v>61.5</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="10">
         <v>3.7</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" si="1"/>
         <v>756</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f>IF(H13="","",Table22[[#This Row],[SOG]]*10)</f>
         <v>88</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <f>IF(H13="","",Table22[[#This Row],[SOG]]*24)</f>
         <v>211.20000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>2300</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="12">
         <v>179</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="12">
         <v>62</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>9.1</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="10">
         <v>4.25</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <f t="shared" si="1"/>
         <v>693</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <f>IF(H14="","",Table22[[#This Row],[SOG]]*10)</f>
         <v>91</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <f>IF(H14="","",Table22[[#This Row],[SOG]]*24)</f>
         <v>218.39999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>2400</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>0.67</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="12">
         <v>180</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="12">
         <v>64</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <f t="shared" si="1"/>
         <v>567</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <f>IF(H15="","",Table22[[#This Row],[SOG]]*10)</f>
         <v>93</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <f>IF(H15="","",Table22[[#This Row],[SOG]]*24)</f>
         <v>223.20000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>2500</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>0.79</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="12">
         <v>181</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="12">
         <v>64</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>9.5</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="10">
         <v>5.95</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f t="shared" si="1"/>
         <v>504</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f>IF(H16="","",Table22[[#This Row],[SOG]]*10)</f>
         <v>95</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <f>IF(H16="","",Table22[[#This Row],[SOG]]*24)</f>
         <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>2650</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>0.93</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="12">
         <v>182</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="12">
         <v>66</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="10">
         <v>7.5</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <f t="shared" si="1"/>
         <v>441</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <f>IF(H17="","",Table22[[#This Row],[SOG]]*10)</f>
         <v>98</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <f>IF(H17="","",Table22[[#This Row],[SOG]]*24)</f>
         <v>235.20000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19"/>
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -5109,12 +4061,12 @@
       <c r="F19"/>
       <c r="I19"/>
     </row>
-    <row r="21" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="F21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="F22"/>
       <c r="I22"/>
@@ -5128,1146 +4080,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53658369-0BC3-BC45-A0E3-0E3340411E0E}">
-  <dimension ref="A1:M44"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="12">
-        <v>1900</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="12">
-        <f>'Fuel Curve 1'!F10</f>
-        <v>1.8</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="12"/>
-      <c r="E3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="21">
-        <v>22.5</v>
-      </c>
-      <c r="G3" s="21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="21">
-        <v>3</v>
-      </c>
-      <c r="G4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="18">
-        <v>8.06</v>
-      </c>
-      <c r="C5" s="15">
-        <v>4</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E6" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E7" s="38"/>
-      <c r="F7" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E8" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="35" t="e">
-        <f>VLOOKUP(ROUNDUP(FWD_P_LVL,1),FWD_TANK,2,FWD_TANK_INDEX)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G8" s="35" t="e">
-        <f>VLOOKUP(ROUNDUP(FWD_S_LVL,0),FWD_TANK,2,FWD_TANK_INDEX)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E9" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="11" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="D11" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="50">
-        <v>0</v>
-      </c>
-      <c r="B13" s="33">
-        <f>250-(A13*FT_VOL)-32</f>
-        <v>218</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
-        <f t="shared" ref="E13:E30" si="0">100-(D13*AFT_VOL)-16</f>
-        <v>84</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="30"/>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="51">
-        <v>1</v>
-      </c>
-      <c r="B14" s="33">
-        <f t="shared" ref="B14:B38" si="1">250-(A14*FT_VOL)-20</f>
-        <v>221.94</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="19">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="51">
-        <f>A14+1</f>
-        <v>2</v>
-      </c>
-      <c r="B15" s="33">
-        <f t="shared" si="1"/>
-        <v>213.88</v>
-      </c>
-      <c r="D15" s="9">
-        <f>D14+1</f>
-        <v>2</v>
-      </c>
-      <c r="E15" s="19">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="35">
-        <f>VLOOKUP(ROUNDUP(FWD_P_LVL,0),FWD_TANK,2,FWD_TANK_INDEX)</f>
-        <v>44.619999999999976</v>
-      </c>
-      <c r="I15" s="35">
-        <f>VLOOKUP(ROUNDUP(FWD_S_LVL,0),FWD_TANK,2,FWD_TANK_INDEX)</f>
-        <v>60.739999999999981</v>
-      </c>
-      <c r="K15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="51">
-        <f t="shared" ref="A16:A37" si="2">A15+1</f>
-        <v>3</v>
-      </c>
-      <c r="B16" s="33">
-        <f t="shared" si="1"/>
-        <v>205.82</v>
-      </c>
-      <c r="D16" s="9">
-        <f t="shared" ref="D16:D30" si="3">D15+1</f>
-        <v>3</v>
-      </c>
-      <c r="E16" s="19">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="35">
-        <f>VLOOKUP(ROUNDUP(F4,0),D13:E30,2,D13:D30)</f>
-        <v>72</v>
-      </c>
-      <c r="I16" s="35">
-        <f>VLOOKUP(ROUNDUP(G4,0),D13:E30,2,D13:D30)</f>
-        <v>84</v>
-      </c>
-      <c r="K16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16">
-        <v>261</v>
-      </c>
-      <c r="M16">
-        <f>L16/4.6</f>
-        <v>56.739130434782616</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="51">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B17" s="33">
-        <f t="shared" si="1"/>
-        <v>197.76</v>
-      </c>
-      <c r="D17" s="9">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="E17" s="19">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="51">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B18" s="33">
-        <f t="shared" si="1"/>
-        <v>189.7</v>
-      </c>
-      <c r="D18" s="9">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E18" s="19">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="51">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="B19" s="33">
-        <f t="shared" si="1"/>
-        <v>181.64</v>
-      </c>
-      <c r="D19" s="9">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="E19" s="19">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="51">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B20" s="33">
-        <f t="shared" si="1"/>
-        <v>173.57999999999998</v>
-      </c>
-      <c r="D20" s="9">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="E20" s="19">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="51">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B21" s="33">
-        <f t="shared" si="1"/>
-        <v>165.51999999999998</v>
-      </c>
-      <c r="D21" s="9">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="E21" s="19">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="51">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B22" s="33">
-        <f t="shared" si="1"/>
-        <v>157.45999999999998</v>
-      </c>
-      <c r="D22" s="9">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="E22" s="19">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="51">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B23" s="33">
-        <f t="shared" si="1"/>
-        <v>149.39999999999998</v>
-      </c>
-      <c r="D23" s="9">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E23" s="19">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="51">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B24" s="33">
-        <f t="shared" si="1"/>
-        <v>141.33999999999997</v>
-      </c>
-      <c r="D24" s="9">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="E24" s="19">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="51">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B25" s="33">
-        <f t="shared" si="1"/>
-        <v>133.28</v>
-      </c>
-      <c r="D25" s="9">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="E25" s="19">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="51">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="B26" s="33">
-        <f t="shared" si="1"/>
-        <v>125.22</v>
-      </c>
-      <c r="D26" s="9">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="E26" s="19">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="51">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="B27" s="33">
-        <f t="shared" si="1"/>
-        <v>117.16</v>
-      </c>
-      <c r="D27" s="9">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="E27" s="19">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="51">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B28" s="33">
-        <f t="shared" si="1"/>
-        <v>109.1</v>
-      </c>
-      <c r="D28" s="9">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="E28" s="19">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="51">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="B29" s="33">
-        <f t="shared" si="1"/>
-        <v>101.03999999999999</v>
-      </c>
-      <c r="D29" s="9">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="E29" s="19">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="51">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B30" s="33">
-        <f t="shared" si="1"/>
-        <v>92.97999999999999</v>
-      </c>
-      <c r="D30" s="9">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="E30" s="19">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="51">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B31" s="33">
-        <f t="shared" si="1"/>
-        <v>84.919999999999987</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="51">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="B32" s="33">
-        <f t="shared" si="1"/>
-        <v>76.859999999999985</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="19">
-        <f>VLOOKUP(ROUNDUP(F3,2),FWD_TANK,2,A13:A38)</f>
-        <v>52.679999999999978</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="51">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B33" s="33">
-        <f t="shared" si="1"/>
-        <v>68.799999999999983</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="51">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="B34" s="33">
-        <f t="shared" si="1"/>
-        <v>60.739999999999981</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="51">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="B35" s="33">
-        <f t="shared" si="1"/>
-        <v>52.679999999999978</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="51">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="B36" s="33">
-        <f t="shared" si="1"/>
-        <v>44.619999999999976</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="51">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="B37" s="33">
-        <f t="shared" si="1"/>
-        <v>36.56</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="19"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="52">
-        <f>A37+1</f>
-        <v>25</v>
-      </c>
-      <c r="B38" s="34">
-        <f t="shared" si="1"/>
-        <v>28.5</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64F1157-8C6D-2C49-BF47-356BEE67E602}">
-  <dimension ref="A2:E36"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="53" t="e">
-        <f>VLOOKUP(8,FWD_TABLE,1,A11:A36)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="D9" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="44">
-        <v>0</v>
-      </c>
-      <c r="B11" s="46">
-        <f>250-(A11*FT_VOL)-32</f>
-        <v>218</v>
-      </c>
-      <c r="D11" s="44">
-        <v>0</v>
-      </c>
-      <c r="E11" s="46">
-        <f t="shared" ref="E11:E28" si="0">100-(D11*AFT_VOL)-16</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="47">
-        <v>1</v>
-      </c>
-      <c r="B12" s="46">
-        <f t="shared" ref="B12:B36" si="1">250-(A12*FT_VOL)-20</f>
-        <v>221.94</v>
-      </c>
-      <c r="D12" s="47">
-        <v>1</v>
-      </c>
-      <c r="E12" s="46">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="47">
-        <f>A12+1</f>
-        <v>2</v>
-      </c>
-      <c r="B13" s="46">
-        <f t="shared" si="1"/>
-        <v>213.88</v>
-      </c>
-      <c r="D13" s="47">
-        <f>D12+1</f>
-        <v>2</v>
-      </c>
-      <c r="E13" s="46">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="47">
-        <f t="shared" ref="A14:A35" si="2">A13+1</f>
-        <v>3</v>
-      </c>
-      <c r="B14" s="46">
-        <f t="shared" si="1"/>
-        <v>205.82</v>
-      </c>
-      <c r="D14" s="47">
-        <f t="shared" ref="D14:D28" si="3">D13+1</f>
-        <v>3</v>
-      </c>
-      <c r="E14" s="46">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="47">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B15" s="46">
-        <f t="shared" si="1"/>
-        <v>197.76</v>
-      </c>
-      <c r="D15" s="47">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="E15" s="46">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="47">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B16" s="46">
-        <f t="shared" si="1"/>
-        <v>189.7</v>
-      </c>
-      <c r="D16" s="47">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E16" s="46">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="47">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="B17" s="46">
-        <f t="shared" si="1"/>
-        <v>181.64</v>
-      </c>
-      <c r="D17" s="47">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="E17" s="46">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="47">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B18" s="46">
-        <f t="shared" si="1"/>
-        <v>173.57999999999998</v>
-      </c>
-      <c r="D18" s="47">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="E18" s="46">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="47">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B19" s="46">
-        <f t="shared" si="1"/>
-        <v>165.51999999999998</v>
-      </c>
-      <c r="D19" s="47">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="E19" s="46">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="47">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B20" s="46">
-        <f t="shared" si="1"/>
-        <v>157.45999999999998</v>
-      </c>
-      <c r="D20" s="47">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="E20" s="46">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="47">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B21" s="46">
-        <f t="shared" si="1"/>
-        <v>149.39999999999998</v>
-      </c>
-      <c r="D21" s="47">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E21" s="46">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="47">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B22" s="46">
-        <f t="shared" si="1"/>
-        <v>141.33999999999997</v>
-      </c>
-      <c r="D22" s="47">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="E22" s="46">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="47">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B23" s="46">
-        <f t="shared" si="1"/>
-        <v>133.28</v>
-      </c>
-      <c r="D23" s="47">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="E23" s="46">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="47">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="B24" s="46">
-        <f t="shared" si="1"/>
-        <v>125.22</v>
-      </c>
-      <c r="D24" s="47">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="E24" s="46">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="47">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="B25" s="46">
-        <f t="shared" si="1"/>
-        <v>117.16</v>
-      </c>
-      <c r="D25" s="47">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="E25" s="46">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="47">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B26" s="46">
-        <f t="shared" si="1"/>
-        <v>109.1</v>
-      </c>
-      <c r="D26" s="47">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="E26" s="46">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="47">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="B27" s="46">
-        <f t="shared" si="1"/>
-        <v>101.03999999999999</v>
-      </c>
-      <c r="D27" s="47">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="E27" s="46">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="47">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="B28" s="46">
-        <f t="shared" si="1"/>
-        <v>92.97999999999999</v>
-      </c>
-      <c r="D28" s="48">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="E28" s="49">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="47">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="B29" s="46">
-        <f t="shared" si="1"/>
-        <v>84.919999999999987</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="47">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="B30" s="46">
-        <f t="shared" si="1"/>
-        <v>76.859999999999985</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="47">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="B31" s="46">
-        <f t="shared" si="1"/>
-        <v>68.799999999999983</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="47">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="B32" s="46">
-        <f t="shared" si="1"/>
-        <v>60.739999999999981</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="19"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="47">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="B33" s="46">
-        <f t="shared" si="1"/>
-        <v>52.679999999999978</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="47">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="B34" s="46">
-        <f t="shared" si="1"/>
-        <v>44.619999999999976</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="47">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="B35" s="46">
-        <f t="shared" si="1"/>
-        <v>36.56</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="48">
-        <f>A35+1</f>
-        <v>25</v>
-      </c>
-      <c r="B36" s="49">
-        <f t="shared" si="1"/>
-        <v>28.5</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>